--- a/biology/Zoologie/Geryoniidae/Geryoniidae.xlsx
+++ b/biology/Zoologie/Geryoniidae/Geryoniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Geryoniidae est une famille de l'ordre Trachymedusae (Méduses).
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des trachyméduses pourvues d'un pédoncule gastrique. Elles ont généralement 4 canaux radiaux (parfois plus), des canaux centripètes, des gonades en forme de coussins aplatis sur les canaux radiaux, deux types de tentacules marginaux (pleins et vides), et des statocystes inclus dans la mésoglée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des trachyméduses pourvues d'un pédoncule gastrique. Elles ont généralement 4 canaux radiaux (parfois plus), des canaux centripètes, des gonades en forme de coussins aplatis sur les canaux radiaux, deux types de tentacules marginaux (pleins et vides), et des statocystes inclus dans la mésoglée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 novembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 novembre 2015) :
 genre Geryonia Péron &amp; Lesueur, 1810 — 1 espèce
 genre Heptarradiata Zamponi &amp; Gezano, 1989 — 1 espèce
 genre Liriope Lesson, 1843 — 1 espèce
